--- a/Spatial Scaling/2017/Biomass Sampling.xlsx
+++ b/Spatial Scaling/2017/Biomass Sampling.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -383,7 +384,7 @@
   <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242:A271"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
